--- a/conflict/競合テスト_エクセル.xlsx
+++ b/conflict/競合テスト_エクセル.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\受け渡しフォルダ\test-202304\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\受け渡しフォルダ\test-202304\conflict\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DDCBDF-2996-4D20-A8F9-E28A19E6A61C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF870257-E3C6-4D05-8941-4952FA7C7BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2790" yWindow="1650" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -47,6 +47,14 @@
   </si>
   <si>
     <t>user1@gmail.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>userc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>userc@gmail.com</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -383,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -418,12 +426,24 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{FF3C8746-31EC-42A9-89B4-5E9552814E8E}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{44B981C7-1CF1-4202-ABD6-773F861AD4AF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
--- a/conflict/競合テスト_エクセル.xlsx
+++ b/conflict/競合テスト_エクセル.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\受け渡しフォルダ\test-202304\conflict\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F780DB10-AD8D-418C-9860-D6FE605DBF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407B86F8-6E6A-4936-A34E-6532B644BD85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2790" yWindow="1650" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -47,6 +47,14 @@
   </si>
   <si>
     <t>user_a@gmail.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_b</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_b@gmail.com</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -383,9 +391,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -416,12 +426,24 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{FF3C8746-31EC-42A9-89B4-5E9552814E8E}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{29809EC0-EB9B-4E78-807D-719CC3A88AC3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
--- a/conflict/競合テスト_エクセル.xlsx
+++ b/conflict/競合テスト_エクセル.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\受け渡しフォルダ\test-202304\conflict\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F780DB10-AD8D-418C-9860-D6FE605DBF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06456DB-6935-4858-8692-22976927454A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2790" yWindow="1650" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -47,6 +47,14 @@
   </si>
   <si>
     <t>user_a@gmail.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_c@gmail.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_c</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -383,7 +391,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -416,12 +424,24 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{FF3C8746-31EC-42A9-89B4-5E9552814E8E}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{7DEE45DB-3E2A-47FD-9B9B-1E1AA176AAA0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>